--- a/resources/whist_20170926.xlsx
+++ b/resources/whist_20170926.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bc8789\Projects\private\GamR\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\private_code\GamR\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,15 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="29">
   <si>
     <t>Games</t>
   </si>
   <si>
     <t>Players</t>
-  </si>
-  <si>
-    <t>Dutten</t>
   </si>
   <si>
     <t>Søren</t>
@@ -498,16 +495,16 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="4">
         <v>43004</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -515,24 +512,24 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <f>SUM(C6:C250)</f>
@@ -563,25 +560,25 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -608,13 +605,13 @@
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -623,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="Q6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -644,10 +641,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -680,13 +677,13 @@
         <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8">
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>4</v>
@@ -716,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -752,13 +749,13 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>7</v>
@@ -791,10 +788,10 @@
         <v>9</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L11">
         <v>7</v>
@@ -827,19 +824,19 @@
         <v>9</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12">
         <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>8</v>
       </c>
       <c r="P12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -863,16 +860,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L13">
         <v>2</v>
       </c>
       <c r="P13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q13">
         <v>12</v>
@@ -899,19 +896,19 @@
         <v>9</v>
       </c>
       <c r="I14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14">
         <v>3</v>
       </c>
       <c r="K14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L14">
         <v>9</v>
       </c>
       <c r="P14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q14">
         <v>24</v>
@@ -938,13 +935,13 @@
         <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15">
         <v>2</v>
       </c>
       <c r="K15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L15">
         <v>13</v>
@@ -971,13 +968,13 @@
         <v>9</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16">
         <v>3</v>
       </c>
       <c r="K16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L16">
         <v>7</v>
@@ -1004,13 +1001,13 @@
         <v>9</v>
       </c>
       <c r="I17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L17">
         <v>11</v>
@@ -1037,13 +1034,13 @@
         <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <v>13</v>
@@ -1070,10 +1067,10 @@
         <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L19">
         <v>11</v>
@@ -1100,19 +1097,19 @@
         <v>9</v>
       </c>
       <c r="I20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>8</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.25">
@@ -1136,19 +1133,19 @@
         <v>9</v>
       </c>
       <c r="I21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21">
         <v>3</v>
       </c>
       <c r="K21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L21">
         <v>7</v>
       </c>
       <c r="P21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q21">
         <f>AVERAGE(E6:E250)</f>
@@ -1176,19 +1173,19 @@
         <v>9</v>
       </c>
       <c r="I22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J22">
         <v>3</v>
       </c>
       <c r="K22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L22">
         <v>10</v>
       </c>
       <c r="M22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.25">
@@ -1212,10 +1209,10 @@
         <v>9</v>
       </c>
       <c r="I23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L23">
         <v>10</v>
@@ -1239,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1269,13 +1266,13 @@
         <v>9</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>9</v>
@@ -1302,13 +1299,13 @@
         <v>9</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J26">
         <v>2</v>
       </c>
       <c r="K26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L26">
         <v>12</v>
@@ -1332,10 +1329,10 @@
         <v>0</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.25">
@@ -1359,13 +1356,13 @@
         <v>9</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J28" s="5">
         <v>3</v>
       </c>
       <c r="K28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L28">
         <v>9</v>
@@ -1392,13 +1389,13 @@
         <v>9</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29">
         <v>8</v>
@@ -1422,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="3:17" x14ac:dyDescent="0.25">
@@ -1697,8 +1694,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet1!K6:K23</xm:f>
-              <xm:sqref>I26</xm:sqref>
+              <xm:f>Sheet1!K6:K52</xm:f>
+              <xm:sqref>I24</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -1713,8 +1710,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet1!K6:K52</xm:f>
-              <xm:sqref>I24</xm:sqref>
+              <xm:f>Sheet1!K6:K23</xm:f>
+              <xm:sqref>I26</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/resources/whist_20170926.xlsx
+++ b/resources/whist_20170926.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
   <si>
     <t>Games</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>SELVMAKKER</t>
+  </si>
+  <si>
+    <t>STOP</t>
   </si>
 </sst>
 </file>
@@ -477,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>6</v>
       </c>
@@ -1013,7 +1016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>-32</v>
       </c>
@@ -1046,7 +1049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>8</v>
       </c>
@@ -1076,7 +1079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>2</v>
       </c>
@@ -1112,7 +1115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>-16</v>
       </c>
@@ -1152,7 +1155,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>-16</v>
       </c>
@@ -1188,7 +1191,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>4</v>
       </c>
@@ -1218,7 +1221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>6</v>
       </c>
@@ -1245,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>-2</v>
       </c>
@@ -1278,7 +1281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>-12</v>
       </c>
@@ -1311,7 +1314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>6</v>
       </c>
@@ -1335,7 +1338,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>-8</v>
       </c>
@@ -1368,7 +1371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>4</v>
       </c>
@@ -1401,7 +1404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>4</v>
       </c>
@@ -1425,14 +1428,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
       <c r="G31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G32">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1694,8 +1700,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet1!K6:K52</xm:f>
-              <xm:sqref>I24</xm:sqref>
+              <xm:f>Sheet1!K6:K23</xm:f>
+              <xm:sqref>I26</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -1710,8 +1716,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet1!K6:K23</xm:f>
-              <xm:sqref>I26</xm:sqref>
+              <xm:f>Sheet1!K6:K52</xm:f>
+              <xm:sqref>I24</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
